--- a/biology/Botanique/Parnassie_des_marais/Parnassie_des_marais.xlsx
+++ b/biology/Botanique/Parnassie_des_marais/Parnassie_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parnassia palustris
-La Parnassie des marais (Parnassia palustris) est une espèce de plante herbacée vivace appartenant au genre Parnassia et à la famille des Célastracées[1].
+La Parnassie des marais (Parnassia palustris) est une espèce de plante herbacée vivace appartenant au genre Parnassia et à la famille des Célastracées.
 La Parnassie des marais est la seule représentante en France du genre Parnassia.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est reconnaissable à ses fleurs blanches larges de 15-30 mm, à cinq pétales blancs et à nervures transparentes. Le calice, beaucoup plus petit que la corolle, est composé de cinq écailles vertes munies de cils.
 Elle fleurit en juillet-août.
@@ -547,7 +561,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace qui pousse surtout dans les prairies humides de haute montagne, mais aussi dans les lieux marécageux, sur les bords de ruisseaux, dans les tourbières de montagne.
 </t>
@@ -578,7 +594,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est protégée dans plusieurs régions de France (voir INPN).
 </t>
